--- a/data/expt_2/raw_transcripts/game32.xlsx
+++ b/data/expt_2/raw_transcripts/game32.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="179">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -639,7 +639,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,6 +649,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -848,9 +852,9 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I194" activeCellId="0" sqref="I194"/>
+      <selection pane="bottomLeft" activeCell="F135" activeCellId="0" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2908,6 +2912,9 @@
       <c r="D130" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F130" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="n">
@@ -2964,6 +2971,9 @@
       <c r="D134" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="F134" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="n">
@@ -3207,6 +3217,9 @@
       <c r="D149" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F149" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="n">
@@ -3629,6 +3642,9 @@
       <c r="D174" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F174" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="n">
@@ -3838,6 +3854,9 @@
       </c>
       <c r="D186" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>96</v>

--- a/data/expt_2/raw_transcripts/game32.xlsx
+++ b/data/expt_2/raw_transcripts/game32.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="178">
   <si>
     <t xml:space="preserve">start</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t xml:space="preserve">Old man.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">old man</t>
   </si>
   <si>
     <t xml:space="preserve"> Did you hear that, [id81]?</t>
@@ -639,7 +636,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -653,10 +650,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -852,9 +845,9 @@
   <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F135" activeCellId="0" sqref="F135"/>
+      <selection pane="bottomLeft" activeCell="H186" activeCellId="0" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1660,9 +1653,7 @@
       <c r="F53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="3" t="s">
         <v>55</v>
       </c>
@@ -2249,9 +2240,7 @@
       <c r="F90" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H90" s="2"/>
       <c r="I90" s="3" t="s">
         <v>55</v>
       </c>
@@ -2362,9 +2351,7 @@
       <c r="F97" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H97" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H97" s="2"/>
       <c r="I97" s="3" t="s">
         <v>55</v>
       </c>
@@ -2912,7 +2899,7 @@
       <c r="D130" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2971,7 +2958,7 @@
       <c r="D134" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3104,9 +3091,7 @@
       <c r="F142" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="H142" s="2"/>
       <c r="I142" s="3" t="s">
         <v>55</v>
       </c>
@@ -3119,7 +3104,7 @@
         <v>421620</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>10</v>
@@ -3133,7 +3118,7 @@
         <v>424620</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>10</v>
@@ -3147,7 +3132,7 @@
         <v>425620</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>14</v>
@@ -3155,9 +3140,7 @@
       <c r="F145" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>134</v>
-      </c>
+      <c r="H145" s="2"/>
       <c r="I145" s="3" t="s">
         <v>55</v>
       </c>
@@ -3170,7 +3153,7 @@
         <v>428620</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>10</v>
@@ -3212,12 +3195,12 @@
         <v>433620</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3229,7 +3212,7 @@
         <v>435620</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>10</v>
@@ -3243,7 +3226,7 @@
         <v>437620</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>10</v>
@@ -3257,7 +3240,7 @@
         <v>439620</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>10</v>
@@ -3271,7 +3254,7 @@
         <v>441620</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>10</v>
@@ -3285,7 +3268,7 @@
         <v>443620</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>10</v>
@@ -3302,7 +3285,7 @@
         <v>445620</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>59</v>
@@ -3325,7 +3308,7 @@
         <v>448620</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>10</v>
@@ -3347,9 +3330,7 @@
       <c r="F157" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H157" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H157" s="2"/>
       <c r="I157" s="3" t="s">
         <v>55</v>
       </c>
@@ -3362,7 +3343,7 @@
         <v>452620</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>10</v>
@@ -3376,7 +3357,7 @@
         <v>455620</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>10</v>
@@ -3398,9 +3379,7 @@
       <c r="F160" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H160" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H160" s="2"/>
       <c r="I160" s="3" t="s">
         <v>55</v>
       </c>
@@ -3413,7 +3392,7 @@
         <v>460620</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>10</v>
@@ -3435,9 +3414,7 @@
       <c r="F162" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H162" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H162" s="2"/>
       <c r="I162" s="3" t="s">
         <v>55</v>
       </c>
@@ -3450,7 +3427,7 @@
         <v>464620</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>10</v>
@@ -3478,7 +3455,7 @@
         <v>473620</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>10</v>
@@ -3500,9 +3477,7 @@
       <c r="F166" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H166" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H166" s="2"/>
       <c r="I166" s="3" t="s">
         <v>55</v>
       </c>
@@ -3515,7 +3490,7 @@
         <v>478620</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>10</v>
@@ -3532,7 +3507,7 @@
         <v>478620</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>14</v>
@@ -3555,7 +3530,7 @@
         <v>483620</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>10</v>
@@ -3583,7 +3558,7 @@
         <v>491620</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>10</v>
@@ -3637,12 +3612,12 @@
         <v>498620</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F174" s="4" t="s">
+      <c r="F174" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3654,7 +3629,7 @@
         <v>502620</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>10</v>
@@ -3717,7 +3692,7 @@
         <v>512620</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>10</v>
@@ -3731,7 +3706,7 @@
         <v>513620</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>10</v>
@@ -3745,7 +3720,7 @@
         <v>517300</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>10</v>
@@ -3767,9 +3742,7 @@
       <c r="F181" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H181" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H181" s="2"/>
       <c r="I181" s="3" t="s">
         <v>55</v>
       </c>
@@ -3796,7 +3769,7 @@
         <v>528060</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>10</v>
@@ -3836,7 +3809,7 @@
         <v>532560</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>10</v>
@@ -3855,12 +3828,10 @@
       <c r="D186" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F186" s="4" t="s">
+      <c r="F186" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H186" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H186" s="2"/>
       <c r="I186" s="3" t="s">
         <v>55</v>
       </c>
@@ -3873,7 +3844,7 @@
         <v>536920</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>10</v>
@@ -3887,7 +3858,7 @@
         <v>538380</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>10</v>
@@ -3901,7 +3872,7 @@
         <v>540220</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>10</v>
@@ -3929,7 +3900,7 @@
         <v>542180</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>10</v>
@@ -3943,7 +3914,7 @@
         <v>543060</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>10</v>
@@ -3957,7 +3928,7 @@
         <v>546500</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>10</v>
@@ -3971,7 +3942,7 @@
         <v>549760</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>10</v>
@@ -3985,7 +3956,7 @@
         <v>551040</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>10</v>
@@ -3999,7 +3970,7 @@
         <v>552140</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>10</v>
@@ -4013,7 +3984,7 @@
         <v>553960</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>10</v>
@@ -4041,7 +4012,7 @@
         <v>558620</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>10</v>
